--- a/2024_06_28_半導体/data/0628_data.xlsx
+++ b/2024_06_28_半導体/data/0628_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\codes\TUS\B3\レポート\2024_06_28_半導体\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE5410A-4348-4A2E-9D76-0216736E2528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC859302-DABD-4770-9804-87FA230FBA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0628_n-Ge" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
   <si>
     <t>I(mA)</t>
     <phoneticPr fontId="3"/>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>B[mT]</t>
+  </si>
+  <si>
+    <t>log T</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1783,13 +1787,13 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>0 mT</c:v>
+            <c:v>p-Ge</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1810,186 +1814,98 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="15875" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
-            <c:backward val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'0705_n-Ge'!$A$3:$A$27</c:f>
+              <c:f>'0628_p-Ge'!$G$31:$G$43</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-2.4</c:v>
+                  <c:v>3.3540164346805303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>3.2986970146792021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>3.1933578157432541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.8</c:v>
+                  <c:v>3.094538140182578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.6</c:v>
+                  <c:v>3.0016509079993998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.4</c:v>
+                  <c:v>2.9141774734081309</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2</c:v>
+                  <c:v>2.8316579357213651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>2.7536830510808206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8</c:v>
+                  <c:v>2.6798874447273215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.6</c:v>
+                  <c:v>2.6099438862064468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.4</c:v>
+                  <c:v>2.5435584382551188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.2</c:v>
+                  <c:v>2.480466327669602</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.99999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.3999999999999901</c:v>
+                  <c:v>2.4204284158296021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0705_n-Ge'!$C$3:$C$27</c:f>
+              <c:f>'0628_p-Ge'!$I$31:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-6.1070000000000002</c:v>
+                  <c:v>-0.39390408967826479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.6</c:v>
+                  <c:v>-9.9464821156538888E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.0860000000000003</c:v>
+                  <c:v>-0.28066371860101352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.58</c:v>
+                  <c:v>-0.42430982024575598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.069</c:v>
+                  <c:v>-0.4892727650339132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.5609999999999999</c:v>
+                  <c:v>-0.51084649892535172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0489999999999999</c:v>
+                  <c:v>-0.49331860823210155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5430000000000001</c:v>
+                  <c:v>-0.5161385767170743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.0369999999999999</c:v>
+                  <c:v>-0.49789674291322028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.526</c:v>
+                  <c:v>-0.45180561771911687</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.02</c:v>
+                  <c:v>-0.38814562385684426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.50800000000000001</c:v>
+                  <c:v>-0.29534714833361791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.503</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.036</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5379999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.0430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.556</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5730000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.0789999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5839999999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.0970000000000004</c:v>
+                  <c:v>-0.20139712432045143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,18 +1913,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64F6-4E57-A256-30F4CFD77A91}"/>
+              <c16:uniqueId val="{00000006-E611-4982-8815-E1B743C8B247}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>100 mT no fixed</c:v>
+            <c:v>n-Ge</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2029,186 +1945,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
-            <c:backward val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'0705_n-Ge'!$A$3:$A$27</c:f>
+              <c:f>'0705_n-Ge'!$G$31:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.4</c:v>
+                  <c:v>3.3540164346805303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>3.2986970146792021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>3.1933578157432541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.8</c:v>
+                  <c:v>3.094538140182578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.6</c:v>
+                  <c:v>3.0016509079993998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.4</c:v>
+                  <c:v>2.9141774734081309</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2</c:v>
+                  <c:v>2.8316579357213651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>2.7536830510808206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8</c:v>
+                  <c:v>2.6798874447273215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.6</c:v>
+                  <c:v>2.6099438862064468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.4</c:v>
+                  <c:v>2.5435584382551188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.99999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.3999999999999901</c:v>
+                  <c:v>2.480466327669602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0705_n-Ge'!$D$3:$D$27</c:f>
+              <c:f>'0705_n-Ge'!$I$31:$I$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-2.9169999999999998</c:v>
+                  <c:v>-0.51995262234431971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.6739999999999999</c:v>
+                  <c:v>-0.53468276549056237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4300000000000002</c:v>
+                  <c:v>-0.55353411651512008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1880000000000002</c:v>
+                  <c:v>-0.56729109916445564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9419999999999999</c:v>
+                  <c:v>-0.57116853858496053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7</c:v>
+                  <c:v>-0.5580272017281005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4550000000000001</c:v>
+                  <c:v>-0.52371883492134774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2130000000000001</c:v>
+                  <c:v>-0.4640944190875434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.97799999999999998</c:v>
+                  <c:v>-0.38486170534465364</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.73199999999999998</c:v>
+                  <c:v>-0.29650888192489405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.48499999999999999</c:v>
+                  <c:v>-0.20753002186540767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.48799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.97399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.216</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.458</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.944</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6739999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.919</c:v>
+                  <c:v>-0.10706574636353003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,7 +2038,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0C46-4AC6-ABEB-E42423B37D1B}"/>
+              <c16:uniqueId val="{00000007-E611-4982-8815-E1B743C8B247}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2235,8 +2057,8 @@
         <c:axId val="1012508656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
-          <c:min val="-3"/>
+          <c:max val="3.4"/>
+          <c:min val="2.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2257,18 +2079,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>1000/</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>I</a:t>
+                  <a:t>T</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> (mA)</a:t>
+                  <a:t> (1/K)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2299,7 +2128,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2331,16 +2160,13 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1012506256"/>
-        <c:crossesAt val="-8"/>
+        <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1012506256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2361,32 +2187,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>V</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1" baseline="-25000">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>H</a:t>
+                  <a:t>log </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> </a:t>
+                  <a:t>σ </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> (mV)</a:t>
+                  <a:t> (S/cm)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" i="0">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2423,7 +2242,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2453,10 +2272,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1012508656"/>
-        <c:crossesAt val="-4"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2470,22 +2288,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.56645032106333537"/>
-          <c:y val="0.58522299820816215"/>
-          <c:w val="0.35682231291890237"/>
-          <c:h val="0.16115833143256125"/>
+          <c:x val="0.63259044839261447"/>
+          <c:y val="0.63203270140317314"/>
+          <c:w val="0.24684194488730257"/>
+          <c:h val="0.1359023059719372"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2554,11 +2364,626 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>p-Ge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0628_p-Ge'!$G$31:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.3540164346805303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2986970146792021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1933578157432541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.094538140182578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0016509079993998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9141774734081309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8316579357213651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7536830510808206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6798874447273215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6099438862064468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5435584382551188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.480466327669602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4204284158296021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0628_p-Ge'!$M$31:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14.860334336798127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.862356666328584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.863371373523609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.864388457084258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.870025396752132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.885246942657712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.92143589038732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.016463016249041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.126020607685669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.360768584217581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.698427475243724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.795337488251732</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.017186237868138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E611-4982-8815-E1B743C8B247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n-Ge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0705_n-Ge'!$G$31:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.3540164346805303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2986970146792021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1933578157432541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.094538140182578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0016509079993998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9141774734081309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8316579357213651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7536830510808206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6798874447273215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6099438862064468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5435584382551188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.480466327669602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0705_n-Ge'!$N$31:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14.674106033102159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.675092692705416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.68005989685588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.692903782570445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.719061232847563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.770851820552615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.853826055617379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.925519280272454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.104255996128813</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.252512061292601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.354428406186564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.505302876889264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E611-4982-8815-E1B743C8B247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1012508656"/>
+        <c:axId val="1012506256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1012508656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.4"/>
+          <c:min val="2.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>1000/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (1/K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012506256"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1012506256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>log </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>n </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (1/cm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="30000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" i="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012508656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63514161484819054"/>
+          <c:y val="0.22604268476423806"/>
+          <c:w val="0.24684194488730257"/>
+          <c:h val="0.1359023059719372"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5062,7 +5487,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5087,11 +5512,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'n-vs-R'!$B$1</c:f>
+              <c:f>'n-vs-R'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>σ (n-Ge)</c:v>
+                  <c:v>R (n-Ge)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5168,45 +5593,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'n-vs-R'!$B$2:$B$14</c:f>
+              <c:f>'n-vs-R'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.30202811881786196</c:v>
+                  <c:v>-1.3219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29195588546570617</c:v>
+                  <c:v>-1.319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27955411119264773</c:v>
+                  <c:v>-1.304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27083756517028917</c:v>
+                  <c:v>-1.266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26843025343171301</c:v>
+                  <c:v>-1.1920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27667683454033604</c:v>
+                  <c:v>-1.0580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29942024754568963</c:v>
+                  <c:v>-0.874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34348326377797245</c:v>
+                  <c:v>-0.74099999999999988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41222876635388817</c:v>
+                  <c:v>-0.49099999999999988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50523231213252251</c:v>
+                  <c:v>-0.34899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6201117751474704</c:v>
+                  <c:v>-0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78150948557138111</c:v>
+                  <c:v>-0.19499999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5223,11 +5648,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'n-vs-R'!$C$1</c:f>
+              <c:f>'n-vs-R'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>σ (p-Ge)</c:v>
+                  <c:v>R (p-Ge)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5304,48 +5729,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'n-vs-R'!$C$2:$C$14</c:f>
+              <c:f>'n-vs-R'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.403734544536967</c:v>
+                  <c:v>0.8610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79530768466050306</c:v>
+                  <c:v>0.85699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5240060260692998</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37643515904385472</c:v>
+                  <c:v>0.85300000000000031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32413597504152997</c:v>
+                  <c:v>0.84200000000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30842778934381992</c:v>
+                  <c:v>0.81299999999999961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3211303789338471</c:v>
+                  <c:v>0.74799999999999978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3046922608165753</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31776294884016526</c:v>
+                  <c:v>0.46700000000000008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35334128351221239</c:v>
+                  <c:v>0.27200000000000024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4091234530019433</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50658561296859173</c:v>
+                  <c:v>1.0000000000001119E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62893081761006298</c:v>
+                  <c:v>-6.0000000000000046E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5368,299 +5793,11 @@
         <c:axId val="981403296"/>
         <c:axId val="981403776"/>
       </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'n-vs-R'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R (n-Ge)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-1.3219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.319</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.266</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.1920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.0580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.874</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.74099999999999988</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.49099999999999988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.34899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.27600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.19499999999999984</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E79F-4173-92A1-B056EE183604}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'n-vs-R'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R (p-Ge)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.8610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85300000000000031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84200000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81299999999999961</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74799999999999978</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46700000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27200000000000024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0000000000001119E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.0000000000000046E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E79F-4173-92A1-B056EE183604}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1063135136"/>
-        <c:axId val="1063115936"/>
-      </c:scatterChart>
       <c:valAx>
         <c:axId val="981403296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5773,7 +5910,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="981403776"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-1.5"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
@@ -5802,18 +5939,39 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> 100</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>σ</a:t>
+                  <a:t>R </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> (S/cm)</a:t>
+                  <a:t>(m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="30000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>/C)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" i="1">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -5880,176 +6038,15 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="981403296"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1063115936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>R</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> × 100 (m</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="30000">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>/C)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1063135136"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1063135136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1063115936"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6060,17 +6057,19 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16792380952380953"/>
-          <c:y val="0.1465636111111111"/>
-          <c:w val="0.74982698412698412"/>
-          <c:h val="8.0853055555555553E-2"/>
+          <c:x val="0.77268571428571431"/>
+          <c:y val="0.5063969444444445"/>
+          <c:w val="0.16270396825396827"/>
+          <c:h val="0.24313083333333338"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6132,1079 +6131,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'n-vs-R'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>σ (n-Ge)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.30202811881786196</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29195588546570617</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27955411119264773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27083756517028917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26843025343171301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27667683454033604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29942024754568963</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34348326377797245</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41222876635388817</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50523231213252251</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6201117751474704</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.78150948557138111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E79F-4173-92A1-B056EE183604}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'n-vs-R'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>σ (p-Ge)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.403734544536967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79530768466050306</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5240060260692998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37643515904385472</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32413597504152997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30842778934381992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3211303789338471</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3046922608165753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31776294884016526</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.35334128351221239</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4091234530019433</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.50658561296859173</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62893081761006298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E79F-4173-92A1-B056EE183604}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="981403296"/>
-        <c:axId val="981403776"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'n-vs-R'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R (n-Ge)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-1.3219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.319</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.266</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.1920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.0580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.874</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.74099999999999988</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.49099999999999988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.34899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.27600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.19499999999999984</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E79F-4173-92A1-B056EE183604}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'n-vs-R'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R (p-Ge)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'n-vs-R'!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.8610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85300000000000031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84200000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81299999999999961</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74799999999999978</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46700000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27200000000000024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0000000000001119E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.0000000000000046E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E79F-4173-92A1-B056EE183604}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1063135136"/>
-        <c:axId val="1063115936"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="981403296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>T</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>  (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" i="0" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>℃</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" i="1">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="981403776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="981403776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>σ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (S/cm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" i="1">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="981403296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1063115936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>R</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> × 100 (m</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="30000">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>/C)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1063135136"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1063135136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1063115936"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16792380952380953"/>
-          <c:y val="0.1465636111111111"/>
-          <c:w val="0.74982698412698412"/>
-          <c:h val="8.0853055555555553E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -8213,479 +7140,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'0628_p-Ge'!$G$31:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3.3540164346805303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2986970146792021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1933578157432541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.094538140182578</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0016509079993998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9141774734081309</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8316579357213651</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7536830510808206</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6798874447273215</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6099438862064468</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5435584382551188</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.480466327669602</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4204284158296021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'0628_p-Ge'!$I$31:$I$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-0.39390408967826479</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.9464821156538888E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.28066371860101352</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.42430982024575598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.4892727650339132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.51084649892535172</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.49331860823210155</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.5161385767170743</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.49789674291322028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.45180561771911687</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.38814562385684426</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.29534714833361791</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.20139712432045143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F866-4FC5-AA25-F9D3FFEE4E92}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1012508656"/>
-        <c:axId val="1012506256"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1012508656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3.4"/>
-          <c:min val="2.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>1000/</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>T</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (1/K)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1012506256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1012506256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>log σ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (S/cm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" i="0">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1012508656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17465880857817062"/>
-          <c:y val="0.61134274541944056"/>
-          <c:w val="0.24684194488730257"/>
-          <c:h val="0.1359023059719372"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -9915,7 +8369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -11157,7 +9611,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -12326,7 +10780,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -12795,7 +11249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -14038,7 +12492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -14061,11 +12515,12 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>n-Ge</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -14087,90 +12542,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0705_n-Ge'!$G$31:$G$42</c:f>
+              <c:f>'0705_n-Ge'!$Q$31:$Q$42</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.3540164346805303</c:v>
+                  <c:v>2.474434813681758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2986970146792021</c:v>
+                  <c:v>2.4816575725709851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1933578157432541</c:v>
+                  <c:v>2.4957524160373268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.094538140182578</c:v>
+                  <c:v>2.5094041602586916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0016509079993998</c:v>
+                  <c:v>2.5226398176041553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9141774734081309</c:v>
+                  <c:v>2.5354840032266903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8316579357213651</c:v>
+                  <c:v>2.547959210587186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7536830510808206</c:v>
+                  <c:v>2.5600860484974142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6798874447273215</c:v>
+                  <c:v>2.5718834459564142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6099438862064468</c:v>
+                  <c:v>2.5833688298927049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5435584382551188</c:v>
+                  <c:v>2.5945582800022815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.480466327669602</c:v>
+                  <c:v>2.6054666641353719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0705_n-Ge'!$I$31:$I$42</c:f>
+              <c:f>'0705_n-Ge'!$P$31:$P$42</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-0.51995262234431971</c:v>
+                  <c:v>3.6012788328053018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53468276549056237</c:v>
+                  <c:v>3.5855620300558031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.55353411651512008</c:v>
+                  <c:v>3.5617434748807812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.56729109916445564</c:v>
+                  <c:v>3.5351426065168807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.57116853858496053</c:v>
+                  <c:v>3.505107716819257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5580272017281005</c:v>
+                  <c:v>3.4664584659710664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.52371883492134774</c:v>
+                  <c:v>3.4177925977130554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.4640944190875434</c:v>
+                  <c:v>3.4057237888917848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.38486170534465364</c:v>
+                  <c:v>3.3062197867783145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.29650888192489405</c:v>
+                  <c:v>3.2463165450342859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.20753002186540767</c:v>
+                  <c:v>3.2333790601998103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.10706574636353003</c:v>
+                  <c:v>3.1829688649989878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14178,7 +12633,138 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B77C-4060-B89B-50A18FC3C4DC}"/>
+              <c16:uniqueId val="{00000001-A073-4E2E-9746-18EF3CD86F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>p-Ge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0628_p-Ge'!$P$31:$P$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.474434813681758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4816575725709851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4957524160373268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5094041602586916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5226398176041553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5354840032266903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.547959210587186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5600860484974142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5718834459564142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5833688298927049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5945582800022815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6054666641353719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6161077570924629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0628_p-Ge'!$O$31:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5422255072681037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8335160007666591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6513023961271589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.506639210921767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4360393264657363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3992440466687164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3805829896323596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2627358952856653</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1714201376528921</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9827632863150821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7087643891512121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70465285166643066</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5767541260631925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A073-4E2E-9746-18EF3CD86F45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14197,8 +12783,8 @@
         <c:axId val="1012508656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.4"/>
-          <c:min val="2.4"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -14223,7 +12809,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>1000/</a:t>
+                  <a:t>log </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="1">
@@ -14237,7 +12823,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> (1/K)</a:t>
+                  <a:t> (K)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -14268,9 +12854,9 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -14302,11 +12888,14 @@
         <c:crossAx val="1012506256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1012506256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14331,21 +12920,35 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>log σ</a:t>
+                  <a:t>log </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> </a:t>
+                  <a:t>μ </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> (S/cm)</a:t>
+                  <a:t> (1/cm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="30000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" i="0">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -14432,9 +13035,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17465880857817062"/>
-          <c:y val="0.61134274541944056"/>
-          <c:w val="0.24684194488730257"/>
+          <c:x val="0.17539137921777845"/>
+          <c:y val="0.57134882235727136"/>
+          <c:w val="0.36159940476190472"/>
           <c:h val="0.1359023059719372"/>
         </c:manualLayout>
       </c:layout>
@@ -14504,6 +13107,803 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 mT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="15875" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0705_n-Ge'!$A$3:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0705_n-Ge'!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-6.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.556</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0970000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64F6-4E57-A256-30F4CFD77A91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100 mT no fixed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0705_n-Ge'!$A$3:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3999999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0705_n-Ge'!$D$3:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-2.9169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.9419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.458</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.944</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0C46-4AC6-ABEB-E42423B37D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1012508656"/>
+        <c:axId val="1012506256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1012508656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012506256"/>
+        <c:crossesAt val="-8"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1012506256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1" baseline="-25000">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>H</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" i="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" i="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1012508656"/>
+        <c:crossesAt val="-4"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56645032106333537"/>
+          <c:y val="0.58522299820816215"/>
+          <c:w val="0.35682231291890237"/>
+          <c:h val="0.16115833143256125"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -22373,6 +21773,47 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109686</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>338088</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9012F56-357E-C042-6C17-7E1253DBC36D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22583,7 +22024,10 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </cdr:txBody>
         </cdr:sp>
@@ -22613,13 +22057,17 @@
             <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜎∝exp⁡(−(0.63 eV)/(2𝑘_𝐵 𝑇))</a:t>
               </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </cdr:txBody>
         </cdr:sp>
@@ -22881,20 +22329,20 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>482287</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>199575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>151950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22919,46 +22367,65 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444187</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBD8C90-BFBD-79DD-5507-5F3B24504C99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17859</cdr:x>
+      <cdr:y>0.3466</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94589</cdr:x>
+      <cdr:y>0.3466</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C83FC7-E125-A402-1627-4022F9B3233C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="900113" y="1247775"/>
+          <a:ext cx="3867150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23001,7 +22468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -23103,44 +22570,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550110</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>232149</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5615189-1135-478D-B0F2-02C1F99DDBE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>177614</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -23170,7 +22599,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23208,7 +22637,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23469,14 +22898,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550110</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>502485</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>232149</xdr:rowOff>
     </xdr:to>
@@ -23512,16 +22941,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90767</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>420375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>151950</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>846198</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>230391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23551,15 +22980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>166409</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>54810</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>3549</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>518644</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23588,16 +23017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>534519</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>227480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>597707</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90749</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597706</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23619,6 +23048,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88989</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>208055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CB5F68-79BD-4295-AD24-258A13704852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187699</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41364</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>55655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEF42EC-0EDB-3599-4579-355D0B8AA46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23736,6 +23241,368 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.36965</cdr:x>
+      <cdr:y>0.06844</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9499</cdr:x>
+      <cdr:y>0.54657</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DC87BA-06EB-0D65-706C-51BB4A0D0CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1858991" y="242607"/>
+          <a:ext cx="2918075" cy="1695019"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52318</cdr:x>
+      <cdr:y>0.04836</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71315</cdr:x>
+      <cdr:y>0.80194</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D4FE76-76D6-7158-349A-69D56EA96DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2631081" y="171450"/>
+          <a:ext cx="955360" cy="2671482"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72451</cdr:x>
+      <cdr:y>0.27264</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90634</cdr:x>
+      <cdr:y>0.38011</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="23" name="テキスト ボックス 22">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DB0976-DD40-46D5-905D-E8ECD04C34FD}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3643591" y="966507"/>
+              <a:ext cx="914400" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∝</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1.76</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="23" name="テキスト ボックス 22">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DB0976-DD40-46D5-905D-E8ECD04C34FD}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3643591" y="966507"/>
+              <a:ext cx="914400" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇∝𝑇^1.76</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66769</cdr:x>
+      <cdr:y>0.57356</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84952</cdr:x>
+      <cdr:y>0.68104</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="24" name="テキスト ボックス 23">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50477778-21D0-B93C-E7D1-90CCC38DA6E1}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3357841" y="2033307"/>
+              <a:ext cx="914400" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∝</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>8</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="24" name="テキスト ボックス 23">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50477778-21D0-B93C-E7D1-90CCC38DA6E1}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="3357841" y="2033307"/>
+              <a:ext cx="914400" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇∝𝑇^8</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.15731</cdr:x>
       <cdr:y>0.49955</cdr:y>
     </cdr:from>
@@ -23835,47 +23702,6 @@
     </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80227</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>316759</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>134732</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9012F56-357E-C042-6C17-7E1253DBC36D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25981,8 +25807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5C5146-D562-40A5-A13D-224A6F2E8A5D}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -26742,7 +26568,7 @@
         <v>-0.17699999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.5">
+    <row r="17" spans="1:16" ht="19.5">
       <c r="A17" s="1">
         <v>0.4</v>
       </c>
@@ -26782,7 +26608,7 @@
         <v>-0.35299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.5">
+    <row r="18" spans="1:16" ht="19.5">
       <c r="A18" s="1">
         <v>0.6</v>
       </c>
@@ -26822,7 +26648,7 @@
         <v>-0.52600000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.5">
+    <row r="19" spans="1:16" ht="19.5">
       <c r="A19" s="1">
         <v>0.8</v>
       </c>
@@ -26862,7 +26688,7 @@
         <v>-0.70199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.5">
+    <row r="20" spans="1:16" ht="19.5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -26902,7 +26728,7 @@
         <v>-0.87599999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5">
+    <row r="21" spans="1:16" ht="19.5">
       <c r="A21" s="1">
         <v>1.2</v>
       </c>
@@ -26942,7 +26768,7 @@
         <v>-1.048</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.5">
+    <row r="22" spans="1:16" ht="19.5">
       <c r="A22" s="1">
         <v>1.3999999999999899</v>
       </c>
@@ -26982,7 +26808,7 @@
         <v>-1.2239999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5">
+    <row r="23" spans="1:16" ht="19.5">
       <c r="A23" s="1">
         <v>1.5999999999999901</v>
       </c>
@@ -27022,7 +26848,7 @@
         <v>-1.3980000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5">
+    <row r="24" spans="1:16" ht="19.5">
       <c r="A24" s="1">
         <v>1.7999999999999901</v>
       </c>
@@ -27062,7 +26888,7 @@
         <v>-1.573</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.5">
+    <row r="25" spans="1:16" ht="19.5">
       <c r="A25" s="1">
         <v>1.99999999999999</v>
       </c>
@@ -27102,7 +26928,7 @@
         <v>-1.7469999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.5">
+    <row r="26" spans="1:16" ht="19.5">
       <c r="A26" s="1">
         <v>2.19999999999999</v>
       </c>
@@ -27142,7 +26968,7 @@
         <v>-1.9190000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.5">
+    <row r="27" spans="1:16" ht="19.5">
       <c r="A27" s="1">
         <v>2.3999999999999901</v>
       </c>
@@ -27182,19 +27008,19 @@
         <v>-2.0960000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:16">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="20.25">
+    <row r="30" spans="1:16" ht="20.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -27222,11 +27048,20 @@
       <c r="L30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <f>273.15+25</f>
         <v>298.14999999999998</v>
@@ -27272,11 +27107,23 @@
         <v>724993873801766.25</v>
       </c>
       <c r="M31">
+        <f>LOG10(L31)</f>
+        <v>14.860334336798127</v>
+      </c>
+      <c r="N31">
         <f>J31*$N$8*10^6</f>
         <v>3485.1823604077199</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19.5">
+      <c r="O31">
+        <f>LOG10(N31)</f>
+        <v>3.5422255072681037</v>
+      </c>
+      <c r="P31">
+        <f>LOG10(A31)</f>
+        <v>2.474434813681758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="19.5">
       <c r="A32">
         <f>30+273.15</f>
         <v>303.14999999999998</v>
@@ -27315,17 +27162,29 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:L42" si="9">1/$N$11/J32*10^(-6)</f>
+        <f t="shared" ref="L32:L41" si="9">1/$N$11/J32*10^(-6)</f>
         <v>728377742524295.13</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M43" si="10">J32*$N$8*10^6</f>
-        <v>3468.9910370144198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="19.5">
+        <f t="shared" ref="M32:O42" si="10">LOG10(L32)</f>
+        <v>14.862356666328584</v>
+      </c>
+      <c r="N32">
+        <f>J32*H32*10^6</f>
+        <v>6815.7868575405109</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>3.8335160007666591</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:P43" si="11">LOG10(A32)</f>
+        <v>2.4816575725709851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="19.5">
       <c r="A33">
-        <f t="shared" ref="A33:A43" si="11">A32+10</f>
+        <f t="shared" ref="A33:A43" si="12">A32+10</f>
         <v>313.14999999999998</v>
       </c>
       <c r="B33" s="8">
@@ -27338,11 +27197,11 @@
         <v>-1.7629999999999999</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F42" si="12">D33-C33</f>
+        <f t="shared" ref="F33:F42" si="13">D33-C33</f>
         <v>0.85499999999999998</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G42" si="13">1000/A33</f>
+        <f t="shared" ref="G33:G42" si="14">1000/A33</f>
         <v>3.1933578157432541</v>
       </c>
       <c r="H33">
@@ -27367,12 +27226,24 @@
       </c>
       <c r="M33">
         <f t="shared" si="10"/>
-        <v>3460.8953753177707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="19.5">
+        <v>14.863371373523609</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N43" si="15">J33*H33*10^6</f>
+        <v>4480.2515228925131</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>3.6513023961271589</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>2.4957524160373268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="19.5">
       <c r="A34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>323.14999999999998</v>
       </c>
       <c r="B34" s="8">
@@ -27385,11 +27256,11 @@
         <v>-2.0779999999999998</v>
       </c>
       <c r="F34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.8530000000000002</v>
       </c>
       <c r="G34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.094538140182578</v>
       </c>
       <c r="H34">
@@ -27414,12 +27285,24 @@
       </c>
       <c r="M34">
         <f t="shared" si="10"/>
-        <v>3452.7997136211216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="19.5">
+        <v>14.864388457084258</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="15"/>
+        <v>3210.9919066440816</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>3.506639210921767</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>2.5094041602586916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="19.5">
       <c r="A35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>333.15</v>
       </c>
       <c r="B35" s="8">
@@ -27432,11 +27315,11 @@
         <v>-2.39</v>
       </c>
       <c r="F35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.84200000000000008</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0016509079993998</v>
       </c>
       <c r="H35">
@@ -27461,12 +27344,24 @@
       </c>
       <c r="M35">
         <f t="shared" si="10"/>
-        <v>3408.273574289547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="19.5">
+        <v>14.870025396752132</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="15"/>
+        <v>2729.2249098496823</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>3.4360393264657363</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="11"/>
+        <v>2.5226398176041553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="19.5">
       <c r="A36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>343.15</v>
       </c>
       <c r="B36" s="8">
@@ -27479,11 +27374,11 @@
         <v>-2.6890000000000001</v>
       </c>
       <c r="F36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.81299999999999972</v>
       </c>
       <c r="G36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9141774734081309</v>
       </c>
       <c r="H36">
@@ -27508,12 +27403,24 @@
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>3290.8864796881239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="19.5">
+        <v>14.885246942657712</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="15"/>
+        <v>2507.5179273652548</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>3.3992440466687164</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="11"/>
+        <v>2.5354840032266903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="19.5">
       <c r="A37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>353.15</v>
       </c>
       <c r="B37" s="8">
@@ -27526,11 +27433,11 @@
         <v>-2.931</v>
       </c>
       <c r="F37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.74799999999999978</v>
       </c>
       <c r="G37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8316579357213651</v>
       </c>
       <c r="H37">
@@ -27555,12 +27462,24 @@
       </c>
       <c r="M37">
         <f t="shared" si="10"/>
-        <v>3027.7774745470078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="19.5">
+        <v>14.92143589038732</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="15"/>
+        <v>2402.0552344251755</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>3.3805829896323596</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>2.547959210587186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="19.5">
       <c r="A38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>363.15</v>
       </c>
       <c r="B38" s="8">
@@ -27573,11 +27492,11 @@
         <v>-2.976</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.60099999999999998</v>
       </c>
       <c r="G38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7536830510808206</v>
       </c>
       <c r="H38">
@@ -27602,12 +27521,24 @@
       </c>
       <c r="M38">
         <f t="shared" si="10"/>
-        <v>2432.746339843251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="19.5">
+        <v>15.016463016249041</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>1831.2004875076175</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>3.2627358952856653</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="11"/>
+        <v>2.5600860484974142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="19.5">
       <c r="A39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>373.15</v>
       </c>
       <c r="B39" s="8">
@@ -27620,11 +27551,11 @@
         <v>-3.05</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.46700000000000008</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6798874447273215</v>
       </c>
       <c r="H39">
@@ -27649,12 +27580,24 @@
       </c>
       <c r="M39">
         <f t="shared" si="10"/>
-        <v>1890.3370061677181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="19.5">
+        <v>15.126020607685669</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="15"/>
+        <v>1483.952971083572</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>3.1714201376528921</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>2.5718834459564142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="19.5">
       <c r="A40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>383.15</v>
       </c>
       <c r="B40" s="8">
@@ -27667,11 +27610,11 @@
         <v>-2.8359999999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.27200000000000024</v>
       </c>
       <c r="G40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6099438862064468</v>
       </c>
       <c r="H40">
@@ -27696,12 +27639,24 @@
       </c>
       <c r="M40">
         <f t="shared" si="10"/>
-        <v>1101.0099907443675</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="19.5">
+        <v>15.360768584217581</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>961.08829115321851</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>2.9827632863150821</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="11"/>
+        <v>2.5833688298927049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="19.5">
       <c r="A41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>393.15</v>
       </c>
       <c r="B41" s="8">
@@ -27714,11 +27669,11 @@
         <v>-2.46</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.125</v>
       </c>
       <c r="G41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5435584382551188</v>
       </c>
       <c r="H41">
@@ -27743,12 +27698,24 @@
       </c>
       <c r="M41">
         <f t="shared" si="10"/>
-        <v>505.97885604060974</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="19.5">
+        <v>15.698427475243724</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>511.40431625242911</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>2.7087643891512121</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="11"/>
+        <v>2.5945582800022815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="19.5">
       <c r="A42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>403.15</v>
       </c>
       <c r="B42" s="8">
@@ -27761,11 +27728,11 @@
         <v>-1.8959999999999999</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000001119E-3</v>
       </c>
       <c r="G42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.480466327669602</v>
       </c>
       <c r="H42">
@@ -27785,17 +27752,29 @@
         <v>1.0000000000001119E-3</v>
       </c>
       <c r="L42">
-        <f t="shared" si="9"/>
+        <f>1/$N$11/J42*10^(-6)</f>
         <v>6.2421972534325094E+17</v>
       </c>
       <c r="M42">
         <f t="shared" si="10"/>
-        <v>4.0478308483253302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="19.5">
+        <v>17.795337488251732</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="15"/>
+        <v>5.0658561296864839</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>0.70465285166643066</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="11"/>
+        <v>2.6054666641353719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="19.5">
       <c r="A43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>413.15</v>
       </c>
       <c r="B43" s="8">
@@ -27808,11 +27787,11 @@
         <v>-1.379</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="14">D43-C43</f>
+        <f t="shared" ref="F43" si="16">D43-C43</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43" si="15">1000/A43</f>
+        <f t="shared" ref="G43" si="17">1000/A43</f>
         <v>2.4204284158296021</v>
       </c>
       <c r="H43">
@@ -27820,15 +27799,15 @@
         <v>0.62893081761006298</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43" si="16">LOG10(H43)</f>
+        <f t="shared" ref="I43" si="18">LOG10(H43)</f>
         <v>-0.20139712432045143</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43" si="17">F43/100</f>
+        <f t="shared" ref="J43" si="19">F43/100</f>
         <v>-6.0000000000000049E-4</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43" si="18">100*J43</f>
+        <f t="shared" ref="K43" si="20">100*J43</f>
         <v>-6.0000000000000046E-2</v>
       </c>
       <c r="L43">
@@ -27836,11 +27815,23 @@
         <v>-1.040366208905534E+16</v>
       </c>
       <c r="M43">
-        <f t="shared" si="10"/>
-        <v>-242.86985089949283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <f>LOG10(-L43)</f>
+        <v>16.017186237868138</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="15"/>
+        <v>-377.35849056603809</v>
+      </c>
+      <c r="O43">
+        <f>LOG10(-N43)</f>
+        <v>2.5767541260631925</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>2.6161077570924629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="F44" s="6"/>
     </row>
   </sheetData>
@@ -27854,8 +27845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B555D65C-4E84-45C4-A0C4-2046C5019D8F}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -28615,7 +28606,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>0.4</v>
       </c>
@@ -28655,7 +28646,7 @@
         <v>-0.35799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>0.6</v>
       </c>
@@ -28695,7 +28686,7 @@
         <v>-0.53300000000000014</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>0.8</v>
       </c>
@@ -28735,7 +28726,7 @@
         <v>-0.71099999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -28775,7 +28766,7 @@
         <v>-0.88700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>1.2</v>
       </c>
@@ -28815,7 +28806,7 @@
         <v>-1.0619999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>1.3999999999999899</v>
       </c>
@@ -28855,7 +28846,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>1.5999999999999901</v>
       </c>
@@ -28895,7 +28886,7 @@
         <v>-1.415</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>1.7999999999999901</v>
       </c>
@@ -28935,7 +28926,7 @@
         <v>-1.5930000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>1.99999999999999</v>
       </c>
@@ -28975,7 +28966,7 @@
         <v>-1.7700000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>2.19999999999999</v>
       </c>
@@ -29015,7 +29006,7 @@
         <v>-1.9430000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>2.3999999999999901</v>
       </c>
@@ -29055,19 +29046,19 @@
         <v>-2.12</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="20.25">
+    <row r="30" spans="1:14" ht="20.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -29099,7 +29090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31">
         <f>273.15+25</f>
         <v>298.14999999999998</v>
@@ -29145,11 +29136,15 @@
         <v>692039606810777</v>
       </c>
       <c r="M31">
-        <f>J31*$N$8*10^6</f>
-        <v>3650.4194411818926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <f>J31*H31*10^6</f>
+        <v>3639.4815151056632</v>
+      </c>
+      <c r="N31">
+        <f>LOG10(M31)</f>
+        <v>3.5610395179437928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <f>30+273.15</f>
         <v>303.14999999999998</v>
@@ -29192,13 +29187,17 @@
         <v>707732114901724.25</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M42" si="10">J32*$N$8*10^6</f>
-        <v>3569.4788770758646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <f t="shared" ref="M32:M42" si="10">J32*H32*10^6</f>
+        <v>7014.6137787056387</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N41" si="11">LOG10(M32)</f>
+        <v>3.8460037639752809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
-        <f t="shared" ref="A33:A42" si="11">A32+10</f>
+        <f t="shared" ref="A33:A42" si="12">A32+10</f>
         <v>313.14999999999998</v>
       </c>
       <c r="B33" s="13">
@@ -29211,11 +29210,11 @@
         <v>-1.93</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F42" si="12">D33-C33</f>
+        <f t="shared" ref="F33:F42" si="13">D33-C33</f>
         <v>0.88700000000000023</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G42" si="13">1000/A33</f>
+        <f t="shared" ref="G33:G42" si="14">1000/A33</f>
         <v>3.1933578157432541</v>
       </c>
       <c r="H33">
@@ -29240,12 +29239,16 @@
       </c>
       <c r="M33">
         <f t="shared" si="10"/>
-        <v>3589.7140181023724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>4647.9334512346913</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>3.6672599012307132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>323.14999999999998</v>
       </c>
       <c r="B34" s="13">
@@ -29258,11 +29261,11 @@
         <v>-2.246</v>
       </c>
       <c r="F34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.86900000000000022</v>
       </c>
       <c r="G34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.094538140182578</v>
       </c>
       <c r="H34">
@@ -29287,12 +29290,16 @@
       </c>
       <c r="M34">
         <f t="shared" si="10"/>
-        <v>3516.8675104069462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>3271.2215320910982</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>3.5147099562029105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>333.15</v>
       </c>
       <c r="B35" s="13">
@@ -29305,11 +29312,11 @@
         <v>-2.5099999999999998</v>
       </c>
       <c r="F35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.86500000000000021</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0016509079993998</v>
       </c>
       <c r="H35">
@@ -29334,12 +29341,16 @@
       </c>
       <c r="M35">
         <f t="shared" si="10"/>
-        <v>3500.6793975857404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2803.7761841092347</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="11"/>
+        <v>3.447743342430901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>343.15</v>
       </c>
       <c r="B36" s="13">
@@ -29352,11 +29363,11 @@
         <v>-2.8210000000000002</v>
       </c>
       <c r="F36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.80799999999999983</v>
       </c>
       <c r="G36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9141774734081309</v>
       </c>
       <c r="H36">
@@ -29381,12 +29392,16 @@
       </c>
       <c r="M36">
         <f t="shared" si="10"/>
-        <v>3269.9987898835575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2492.0965378980645</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="11"/>
+        <v>3.3965648618492343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>353.15</v>
       </c>
       <c r="B37" s="13">
@@ -29399,11 +29414,11 @@
         <v>-3.0249999999999999</v>
       </c>
       <c r="F37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.71</v>
       </c>
       <c r="G37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8316579357213651</v>
       </c>
       <c r="H37">
@@ -29428,12 +29443,16 @@
       </c>
       <c r="M37">
         <f t="shared" si="10"/>
-        <v>2873.3900257640175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2280.0256904303142</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="11"/>
+        <v>3.3579397404869735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>363.15</v>
       </c>
       <c r="B38" s="13">
@@ -29446,11 +29465,11 @@
         <v>-3.15</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5950000000000002</v>
       </c>
       <c r="G38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7536830510808206</v>
       </c>
       <c r="H38">
@@ -29475,12 +29494,16 @@
       </c>
       <c r="M38">
         <f t="shared" si="10"/>
-        <v>2407.9817821543538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1812.9189518586238</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="11"/>
+        <v>3.2583783890114755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>373.15</v>
       </c>
       <c r="B39" s="13">
@@ -29493,11 +29516,11 @@
         <v>-3.0939999999999999</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6798874447273215</v>
       </c>
       <c r="H39">
@@ -29522,12 +29545,16 @@
       </c>
       <c r="M39">
         <f t="shared" si="10"/>
-        <v>1659.2815641735881</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1302.8280902446779</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="11"/>
+        <v>3.1148871138065153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>383.15</v>
       </c>
       <c r="B40" s="13">
@@ -29540,11 +29567,11 @@
         <v>-2.7549999999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.20700000000000029</v>
       </c>
       <c r="G40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6099438862064468</v>
       </c>
       <c r="H40">
@@ -29569,12 +29596,16 @@
       </c>
       <c r="M40">
         <f t="shared" si="10"/>
-        <v>837.73483849739785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>731.41645687028063</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="11"/>
+        <v>2.8641647277378013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>393.15</v>
       </c>
       <c r="B41" s="13">
@@ -29587,11 +29618,11 @@
         <v>-2.17</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.7000000000000153E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5435584382551188</v>
       </c>
       <c r="H41">
@@ -29616,12 +29647,16 @@
       </c>
       <c r="M41">
         <f t="shared" si="10"/>
-        <v>190.210325649168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>192.28802291091395</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="11"/>
+        <v>2.2839522340788747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>403.15</v>
       </c>
       <c r="B42" s="13">
@@ -29634,11 +29669,11 @@
         <v>-1.6339999999999999</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-5.0999999999999934E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.480466327669602</v>
       </c>
       <c r="H42">
@@ -29663,15 +29698,15 @@
       </c>
       <c r="M42">
         <f t="shared" si="10"/>
-        <v>-206.39843847037287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="19.5">
+        <v>-258.35866261398144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="19.5">
       <c r="B43" s="13"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="F44" s="6"/>
     </row>
   </sheetData>
@@ -29685,8 +29720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9096AF-AA6A-4D09-B907-7FD2C1AC6084}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -30449,7 +30484,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19.5">
+    <row r="17" spans="1:17" ht="19.5">
       <c r="A17" s="2">
         <v>0.4</v>
       </c>
@@ -30489,7 +30524,7 @@
         <v>0.55699999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19.5">
+    <row r="18" spans="1:17" ht="19.5">
       <c r="A18" s="2">
         <v>0.6</v>
       </c>
@@ -30529,7 +30564,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19.5">
+    <row r="19" spans="1:17" ht="19.5">
       <c r="A19" s="2">
         <v>0.8</v>
       </c>
@@ -30569,7 +30604,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19.5">
+    <row r="20" spans="1:17" ht="19.5">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -30609,7 +30644,7 @@
         <v>1.3860000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19.5">
+    <row r="21" spans="1:17" ht="19.5">
       <c r="A21" s="2">
         <v>1.2</v>
       </c>
@@ -30649,7 +30684,7 @@
         <v>1.6600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19.5">
+    <row r="22" spans="1:17" ht="19.5">
       <c r="A22" s="2">
         <v>1.3999999999999899</v>
       </c>
@@ -30689,7 +30724,7 @@
         <v>1.9390000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19.5">
+    <row r="23" spans="1:17" ht="19.5">
       <c r="A23" s="2">
         <v>1.5999999999999901</v>
       </c>
@@ -30729,7 +30764,7 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19.5">
+    <row r="24" spans="1:17" ht="19.5">
       <c r="A24" s="2">
         <v>1.7999999999999901</v>
       </c>
@@ -30769,7 +30804,7 @@
         <v>2.4929999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19.5">
+    <row r="25" spans="1:17" ht="19.5">
       <c r="A25" s="2">
         <v>1.99999999999999</v>
       </c>
@@ -30809,7 +30844,7 @@
         <v>2.766</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19.5">
+    <row r="26" spans="1:17" ht="19.5">
       <c r="A26" s="2">
         <v>2.19999999999999</v>
       </c>
@@ -30849,7 +30884,7 @@
         <v>3.0410000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19.5">
+    <row r="27" spans="1:17" ht="19.5">
       <c r="A27" s="2">
         <v>2.3999999999999901</v>
       </c>
@@ -30889,19 +30924,19 @@
         <v>3.3199999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:17">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="20.25">
+    <row r="30" spans="1:17" ht="20.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -30936,10 +30971,19 @@
         <v>16</v>
       </c>
       <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <f>273.15+25</f>
         <v>298.14999999999998</v>
@@ -30985,15 +31029,27 @@
         <v>-1.3219999999999998</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" ref="M31" si="7">-1/$N$11/K31*10^(-6)</f>
+        <f>-1/$N$11/K31*10^(-6)</f>
         <v>472178309639425.81</v>
       </c>
-      <c r="N31" s="7">
-        <f t="shared" ref="N31" si="8">-K31*$N$8*10^6</f>
-        <v>3980.5980333871812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="19.5">
+      <c r="N31">
+        <f>LOG10(M31)</f>
+        <v>14.674106033102159</v>
+      </c>
+      <c r="O31" s="7">
+        <f>-K31*H31*10^6</f>
+        <v>3992.8117307721345</v>
+      </c>
+      <c r="P31">
+        <f>LOG10(O31)</f>
+        <v>3.6012788328053018</v>
+      </c>
+      <c r="Q31">
+        <f>LOG10(A31)</f>
+        <v>2.474434813681758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="19.5">
       <c r="A32">
         <f>30+273.15</f>
         <v>303.14999999999998</v>
@@ -31008,19 +31064,19 @@
         <v>1.3180000000000001</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" ref="F32:F42" si="9">D32-C32</f>
+        <f t="shared" ref="F32:F42" si="7">D32-C32</f>
         <v>-1.319</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" ref="G32:G42" si="10">1000/A32</f>
+        <f t="shared" ref="G32:G42" si="8">1000/A32</f>
         <v>3.2986970146792021</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" ref="H32:H42" si="11">80/3/B32</f>
+        <f t="shared" ref="H32:H42" si="9">80/3/B32</f>
         <v>0.29195588546570617</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" ref="I32:I42" si="12">LOG10(H32)</f>
+        <f t="shared" ref="I32:I42" si="10">LOG10(H32)</f>
         <v>-0.53468276549056237</v>
       </c>
       <c r="J32">
@@ -31032,19 +31088,31 @@
         <v>-1.319E-2</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" ref="L32:L42" si="13">100*K32</f>
+        <f t="shared" ref="L32:L42" si="11">100*K32</f>
         <v>-1.319</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" ref="M32:M42" si="14">-1/$N$11/K32*10^(-6)</f>
+        <f t="shared" ref="M32:M42" si="12">-1/$N$11/K32*10^(-6)</f>
         <v>473252255756877.06</v>
       </c>
-      <c r="N32" s="7">
-        <f t="shared" ref="N32:N42" si="15">-K32*$N$8*10^6</f>
-        <v>3971.5649062312345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="19.5">
+      <c r="N32">
+        <f t="shared" ref="N32:P42" si="13">LOG10(M32)</f>
+        <v>14.675092692705416</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" ref="O32:O42" si="14">-K32*H32*10^6</f>
+        <v>3850.8981292926646</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="13"/>
+        <v>3.5855620300558031</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q42" si="15">LOG10(A32)</f>
+        <v>2.4816575725709851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="19.5">
       <c r="A33">
         <f t="shared" ref="A33:A42" si="16">A32+10</f>
         <v>313.14999999999998</v>
@@ -31059,19 +31127,19 @@
         <v>1.478</v>
       </c>
       <c r="F33" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.304</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="8"/>
+        <v>3.1933578157432541</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" si="9"/>
-        <v>-1.304</v>
-      </c>
-      <c r="G33" s="10">
+        <v>0.27955411119264773</v>
+      </c>
+      <c r="I33" s="7">
         <f t="shared" si="10"/>
-        <v>3.1933578157432541</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="11"/>
-        <v>0.27955411119264773</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="12"/>
         <v>-0.55353411651512008</v>
       </c>
       <c r="J33">
@@ -31083,19 +31151,31 @@
         <v>-1.3040000000000001E-2</v>
       </c>
       <c r="L33" s="7">
+        <f t="shared" si="11"/>
+        <v>-1.304</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="12"/>
+        <v>478696108392117.13</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="13"/>
-        <v>-1.304</v>
-      </c>
-      <c r="M33" s="9">
+        <v>14.68005989685588</v>
+      </c>
+      <c r="O33" s="7">
         <f t="shared" si="14"/>
-        <v>478696108392117.13</v>
-      </c>
-      <c r="N33" s="7">
+        <v>3645.3856099521267</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="13"/>
+        <v>3.5617434748807812</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="15"/>
-        <v>3926.3992704515013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="19.5">
+        <v>2.4957524160373268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="19.5">
       <c r="A34">
         <f t="shared" si="16"/>
         <v>323.14999999999998</v>
@@ -31110,19 +31190,19 @@
         <v>1.6459999999999999</v>
       </c>
       <c r="F34" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.266</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="8"/>
+        <v>3.094538140182578</v>
+      </c>
+      <c r="H34" s="7">
         <f t="shared" si="9"/>
-        <v>-1.266</v>
-      </c>
-      <c r="G34" s="10">
+        <v>0.27083756517028917</v>
+      </c>
+      <c r="I34" s="7">
         <f t="shared" si="10"/>
-        <v>3.094538140182578</v>
-      </c>
-      <c r="H34" s="7">
-        <f t="shared" si="11"/>
-        <v>0.27083756517028917</v>
-      </c>
-      <c r="I34" s="7">
-        <f t="shared" si="12"/>
         <v>-0.56729109916445564</v>
       </c>
       <c r="J34">
@@ -31134,19 +31214,31 @@
         <v>-1.2659999999999999E-2</v>
       </c>
       <c r="L34" s="7">
+        <f t="shared" si="11"/>
+        <v>-1.266</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="12"/>
+        <v>493064553983665.81</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="13"/>
-        <v>-1.266</v>
-      </c>
-      <c r="M34" s="9">
+        <v>14.692903782570445</v>
+      </c>
+      <c r="O34" s="7">
         <f t="shared" si="14"/>
-        <v>493064553983665.81</v>
-      </c>
-      <c r="N34" s="7">
+        <v>3428.8035750558606</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>3.5351426065168807</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="15"/>
-        <v>3811.979659809509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="19.5">
+        <v>2.5094041602586916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="19.5">
       <c r="A35">
         <f t="shared" si="16"/>
         <v>333.15</v>
@@ -31161,19 +31253,19 @@
         <v>1.7909999999999999</v>
       </c>
       <c r="F35" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.1920000000000002</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="8"/>
+        <v>3.0016509079993998</v>
+      </c>
+      <c r="H35" s="7">
         <f t="shared" si="9"/>
-        <v>-1.1920000000000002</v>
-      </c>
-      <c r="G35" s="10">
+        <v>0.26843025343171301</v>
+      </c>
+      <c r="I35" s="7">
         <f t="shared" si="10"/>
-        <v>3.0016509079993998</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" si="11"/>
-        <v>0.26843025343171301</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="12"/>
         <v>-0.57116853858496053</v>
       </c>
       <c r="J35">
@@ -31185,19 +31277,31 @@
         <v>-1.1920000000000002E-2</v>
       </c>
       <c r="L35" s="7">
+        <f t="shared" si="11"/>
+        <v>-1.1920000000000002</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="12"/>
+        <v>523674266227618.06</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="13"/>
-        <v>-1.1920000000000002</v>
-      </c>
-      <c r="M35" s="9">
+        <v>14.719061232847563</v>
+      </c>
+      <c r="O35" s="7">
         <f t="shared" si="14"/>
-        <v>523674266227618.06</v>
-      </c>
-      <c r="N35" s="7">
+        <v>3199.6886209060194</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="13"/>
+        <v>3.505107716819257</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="15"/>
-        <v>3589.1625232961583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="19.5">
+        <v>2.5226398176041553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="19.5">
       <c r="A36">
         <f t="shared" si="16"/>
         <v>343.15</v>
@@ -31212,19 +31316,19 @@
         <v>1.881</v>
       </c>
       <c r="F36" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.0580000000000001</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="8"/>
+        <v>2.9141774734081309</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" si="9"/>
-        <v>-1.0580000000000001</v>
-      </c>
-      <c r="G36" s="10">
+        <v>0.27667683454033604</v>
+      </c>
+      <c r="I36" s="7">
         <f t="shared" si="10"/>
-        <v>2.9141774734081309</v>
-      </c>
-      <c r="H36" s="7">
-        <f t="shared" si="11"/>
-        <v>0.27667683454033604</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="12"/>
         <v>-0.5580272017281005</v>
       </c>
       <c r="J36">
@@ -31236,19 +31340,31 @@
         <v>-1.0580000000000001E-2</v>
       </c>
       <c r="L36" s="7">
+        <f t="shared" si="11"/>
+        <v>-1.0580000000000001</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="12"/>
+        <v>589999740400114.13</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="13"/>
-        <v>-1.0580000000000001</v>
-      </c>
-      <c r="M36" s="9">
+        <v>14.770851820552615</v>
+      </c>
+      <c r="O36" s="7">
         <f t="shared" si="14"/>
-        <v>589999740400114.13</v>
-      </c>
-      <c r="N36" s="7">
+        <v>2927.2409094367554</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="13"/>
+        <v>3.4664584659710664</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="15"/>
-        <v>3185.6828436638716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="19.5">
+        <v>2.5354840032266903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="19.5">
       <c r="A37">
         <f t="shared" si="16"/>
         <v>353.15</v>
@@ -31263,19 +31379,19 @@
         <v>1.885</v>
       </c>
       <c r="F37" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.87399999999999989</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8316579357213651</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="9"/>
-        <v>-0.87399999999999989</v>
-      </c>
-      <c r="G37" s="10">
+        <v>0.29942024754568963</v>
+      </c>
+      <c r="I37" s="7">
         <f t="shared" si="10"/>
-        <v>2.8316579357213651</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="11"/>
-        <v>0.29942024754568963</v>
-      </c>
-      <c r="I37" s="7">
-        <f t="shared" si="12"/>
         <v>-0.52371883492134774</v>
       </c>
       <c r="J37">
@@ -31287,19 +31403,31 @@
         <v>-8.7399999999999995E-3</v>
       </c>
       <c r="L37" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.874</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="12"/>
+        <v>714210212063296.25</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="13"/>
-        <v>-0.874</v>
-      </c>
-      <c r="M37" s="9">
+        <v>14.853826055617379</v>
+      </c>
+      <c r="O37" s="7">
         <f t="shared" si="14"/>
-        <v>714210212063296.25</v>
-      </c>
-      <c r="N37" s="7">
+        <v>2616.9329635493273</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="13"/>
+        <v>3.4177925977130554</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="15"/>
-        <v>2631.6510447658065</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="19.5">
+        <v>2.547959210587186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="19.5">
       <c r="A38">
         <f t="shared" si="16"/>
         <v>363.15</v>
@@ -31314,19 +31442,19 @@
         <v>1.712</v>
       </c>
       <c r="F38" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.74099999999999988</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="8"/>
+        <v>2.7536830510808206</v>
+      </c>
+      <c r="H38" s="7">
         <f t="shared" si="9"/>
-        <v>-0.74099999999999988</v>
-      </c>
-      <c r="G38" s="10">
+        <v>0.34348326377797245</v>
+      </c>
+      <c r="I38" s="7">
         <f t="shared" si="10"/>
-        <v>2.7536830510808206</v>
-      </c>
-      <c r="H38" s="7">
-        <f t="shared" si="11"/>
-        <v>0.34348326377797245</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="12"/>
         <v>-0.4640944190875434</v>
       </c>
       <c r="J38">
@@ -31338,19 +31466,31 @@
         <v>-7.4099999999999991E-3</v>
       </c>
       <c r="L38" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.74099999999999988</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="12"/>
+        <v>842401788587477.63</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="13"/>
-        <v>-0.74099999999999988</v>
-      </c>
-      <c r="M38" s="9">
+        <v>14.925519280272454</v>
+      </c>
+      <c r="O38" s="7">
         <f t="shared" si="14"/>
-        <v>842401788587477.63</v>
-      </c>
-      <c r="N38" s="7">
+        <v>2545.2109845947757</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="13"/>
+        <v>3.4057237888917848</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="15"/>
-        <v>2231.182407518836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="19.5">
+        <v>2.5600860484974142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="19.5">
       <c r="A39">
         <f t="shared" si="16"/>
         <v>373.15</v>
@@ -31365,19 +31505,19 @@
         <v>1.607</v>
       </c>
       <c r="F39" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.49099999999999988</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="8"/>
+        <v>2.6798874447273215</v>
+      </c>
+      <c r="H39" s="7">
         <f t="shared" si="9"/>
-        <v>-0.49099999999999988</v>
-      </c>
-      <c r="G39" s="10">
+        <v>0.41222876635388817</v>
+      </c>
+      <c r="I39" s="7">
         <f t="shared" si="10"/>
-        <v>2.6798874447273215</v>
-      </c>
-      <c r="H39" s="7">
-        <f t="shared" si="11"/>
-        <v>0.41222876635388817</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="12"/>
         <v>-0.38486170534465364</v>
       </c>
       <c r="J39">
@@ -31389,19 +31529,31 @@
         <v>-4.9099999999999986E-3</v>
       </c>
       <c r="L39" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.49099999999999988</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="12"/>
+        <v>1271323269538332</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="13"/>
-        <v>-0.49099999999999988</v>
-      </c>
-      <c r="M39" s="9">
+        <v>15.104255996128813</v>
+      </c>
+      <c r="O39" s="7">
         <f t="shared" si="14"/>
-        <v>1271323269538332</v>
-      </c>
-      <c r="N39" s="7">
+        <v>2024.0432427975902</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>3.3062197867783145</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="15"/>
-        <v>1478.4218111899436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="19.5">
+        <v>2.5718834459564142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="19.5">
       <c r="A40">
         <f t="shared" si="16"/>
         <v>383.15</v>
@@ -31416,19 +31568,19 @@
         <v>1.409</v>
       </c>
       <c r="F40" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="8"/>
+        <v>2.6099438862064468</v>
+      </c>
+      <c r="H40" s="7">
         <f t="shared" si="9"/>
-        <v>-0.34899999999999998</v>
-      </c>
-      <c r="G40" s="10">
+        <v>0.50523231213252251</v>
+      </c>
+      <c r="I40" s="7">
         <f t="shared" si="10"/>
-        <v>2.6099438862064468</v>
-      </c>
-      <c r="H40" s="7">
-        <f t="shared" si="11"/>
-        <v>0.50523231213252251</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="12"/>
         <v>-0.29650888192489405</v>
       </c>
       <c r="J40">
@@ -31440,19 +31592,31 @@
         <v>-3.4899999999999996E-3</v>
       </c>
       <c r="L40" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="12"/>
+        <v>1788595201556793.5</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="13"/>
-        <v>-0.34899999999999998</v>
-      </c>
-      <c r="M40" s="9">
+        <v>15.252512061292601</v>
+      </c>
+      <c r="O40" s="7">
         <f t="shared" si="14"/>
-        <v>1788595201556793.5</v>
-      </c>
-      <c r="N40" s="7">
+        <v>1763.2607693425034</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="13"/>
+        <v>3.2463165450342859</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="15"/>
-        <v>1050.8537924751333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="19.5">
+        <v>2.5833688298927049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="19.5">
       <c r="A41">
         <f t="shared" si="16"/>
         <v>393.15</v>
@@ -31467,19 +31631,19 @@
         <v>1.222</v>
       </c>
       <c r="F41" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="8"/>
+        <v>2.5435584382551188</v>
+      </c>
+      <c r="H41" s="7">
         <f t="shared" si="9"/>
-        <v>-0.27600000000000002</v>
-      </c>
-      <c r="G41" s="10">
+        <v>0.6201117751474704</v>
+      </c>
+      <c r="I41" s="7">
         <f t="shared" si="10"/>
-        <v>2.5435584382551188</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="11"/>
-        <v>0.6201117751474704</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="12"/>
         <v>-0.20753002186540767</v>
       </c>
       <c r="J41">
@@ -31491,19 +31655,31 @@
         <v>-2.7600000000000003E-3</v>
       </c>
       <c r="L41" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="12"/>
+        <v>2261665671533771</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="13"/>
-        <v>-0.27600000000000002</v>
-      </c>
-      <c r="M41" s="9">
+        <v>15.354428406186564</v>
+      </c>
+      <c r="O41" s="7">
         <f t="shared" si="14"/>
-        <v>2261665671533771</v>
-      </c>
-      <c r="N41" s="7">
+        <v>1711.5084994070187</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="13"/>
+        <v>3.2333790601998103</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="15"/>
-        <v>831.04769834709691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="19.5">
+        <v>2.5945582800022815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="19.5">
       <c r="A42">
         <f t="shared" si="16"/>
         <v>403.15</v>
@@ -31518,19 +31694,19 @@
         <v>1.06</v>
       </c>
       <c r="F42" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.19499999999999984</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="8"/>
+        <v>2.480466327669602</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" si="9"/>
-        <v>-0.19499999999999984</v>
-      </c>
-      <c r="G42" s="10">
+        <v>0.78150948557138111</v>
+      </c>
+      <c r="I42" s="7">
         <f t="shared" si="10"/>
-        <v>2.480466327669602</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" si="11"/>
-        <v>0.78150948557138111</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="12"/>
         <v>-0.10706574636353003</v>
       </c>
       <c r="J42">
@@ -31542,19 +31718,31 @@
         <v>-1.9499999999999984E-3</v>
       </c>
       <c r="L42" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.19499999999999984</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="12"/>
+        <v>3201126796632417</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="13"/>
-        <v>-0.19499999999999984</v>
-      </c>
-      <c r="M42" s="9">
+        <v>15.505302876889264</v>
+      </c>
+      <c r="O42" s="7">
         <f t="shared" si="14"/>
-        <v>3201126796632417</v>
-      </c>
-      <c r="N42" s="7">
+        <v>1523.943496864192</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="13"/>
+        <v>3.1829688649989878</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="15"/>
-        <v>587.15326513653531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>2.6054666641353719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="I44" cm="1">
         <f t="array" ref="I44:J44">LINEST(J41:J42,G41:G42)</f>
         <v>-3.666505066992841</v>
@@ -31563,7 +31751,7 @@
         <v>8.8481143673587734</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:17">
       <c r="I45">
         <f>-I44*8.617*2*10^(-2)</f>
         <v>0.63188548324554628</v>
@@ -31580,8 +31768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C94C5-4F78-478F-8EC5-1B84CF9ECDB7}">
   <dimension ref="A1:B320"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -34157,8 +34345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FF7AE2-1827-4D06-A22D-A967C5CAC014}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/2024_06_28_半導体/data/0628_data.xlsx
+++ b/2024_06_28_半導体/data/0628_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\codes\TUS\B3\レポート\2024_06_28_半導体\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\Documents\latex\TUS_B3_reports\2024_06_28_半導体\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC859302-DABD-4770-9804-87FA230FBA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EE01A-F4C2-4E8D-8414-60E4ACC5AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0628_n-Ge" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>I(mA)</t>
     <phoneticPr fontId="3"/>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>log T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>log10</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2465,7 +2469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0628_p-Ge'!$M$31:$M$43</c:f>
+              <c:f>'0628_p-Ge'!$N$31:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -12637,6 +12641,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1012508656"/>
+        <c:axId val="1012506256"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -12667,7 +12685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0628_p-Ge'!$P$31:$P$43</c:f>
+              <c:f>'0628_p-Ge'!$Q$31:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -12715,7 +12733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0628_p-Ge'!$O$31:$O$43</c:f>
+              <c:f>'0628_p-Ge'!$P$31:$P$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -12776,15 +12794,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1012508656"/>
-        <c:axId val="1012506256"/>
+        <c:axId val="856447599"/>
+        <c:axId val="958605504"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1012508656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
-          <c:min val="2"/>
+          <c:max val="2.7"/>
+          <c:min val="2.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12856,7 +12874,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12888,13 +12906,14 @@
         <c:crossAx val="1012506256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1012506256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12934,21 +12953,21 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> (1/cm</a:t>
+                  <a:t> (cm</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="0" baseline="30000">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>3</a:t>
+                  <a:t>2</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" i="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>/Vs)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" i="0">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -12985,7 +13004,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -13018,6 +13037,67 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="958605504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856447599"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="856447599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="958605504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -22986,9 +23066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>518644</xdr:colOff>
+      <xdr:colOff>529634</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>82991</xdr:rowOff>
+      <xdr:rowOff>137943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23056,15 +23136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>616324</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
+      <xdr:colOff>597274</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>88989</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>208055</xdr:rowOff>
+      <xdr:colOff>69939</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>112805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23094,15 +23174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187699</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>49305</xdr:rowOff>
+      <xdr:colOff>168649</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>41364</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>55655</xdr:rowOff>
+      <xdr:colOff>22314</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>131855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23241,12 +23321,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36965</cdr:x>
-      <cdr:y>0.06844</cdr:y>
+      <cdr:x>0.14931</cdr:x>
+      <cdr:y>0.12295</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9499</cdr:x>
-      <cdr:y>0.54657</cdr:y>
+      <cdr:x>0.88284</cdr:x>
+      <cdr:y>0.42193</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -23261,60 +23341,15 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1858991" y="242607"/>
-          <a:ext cx="2918075" cy="1695019"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.52318</cdr:x>
-      <cdr:y>0.04836</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.71315</cdr:x>
-      <cdr:y>0.80194</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D4FE76-76D6-7158-349A-69D56EA96DA5}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2631081" y="171450"/>
-          <a:ext cx="955360" cy="2671482"/>
+          <a:off x="752546" y="442632"/>
+          <a:ext cx="3696943" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </cdr:spPr>
@@ -23336,12 +23371,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.72451</cdr:x>
-      <cdr:y>0.27264</cdr:y>
+      <cdr:x>0.67348</cdr:x>
+      <cdr:y>0.25412</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.90634</cdr:x>
-      <cdr:y>0.38011</cdr:y>
+      <cdr:x>0.85531</cdr:x>
+      <cdr:y>0.36159</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -23358,8 +23393,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3643591" y="966507"/>
-              <a:ext cx="914400" cy="381000"/>
+              <a:off x="3394355" y="914829"/>
+              <a:ext cx="916424" cy="386892"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -23409,7 +23444,7 @@
                           <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>1.76</m:t>
+                          <m:t>−1.5</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSup>
@@ -23438,59 +23473,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3643591" y="966507"/>
-              <a:ext cx="914400" cy="381000"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜇∝𝑇^1.76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.66769</cdr:x>
-      <cdr:y>0.57356</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.84952</cdr:x>
-      <cdr:y>0.68104</cdr:y>
-    </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="24" name="テキスト ボックス 23">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50477778-21D0-B93C-E7D1-90CCC38DA6E1}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3357841" y="2033307"/>
-              <a:ext cx="914400" cy="381000"/>
+              <a:off x="3394355" y="914829"/>
+              <a:ext cx="916424" cy="386892"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -23501,90 +23485,11 @@
             <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝜇</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>∝</m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑇</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>8</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </cdr:txBody>
-        </cdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <cdr:sp macro="" textlink="">
-          <cdr:nvSpPr>
-            <cdr:cNvPr id="24" name="テキスト ボックス 23">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50477778-21D0-B93C-E7D1-90CCC38DA6E1}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvSpPr txBox="1"/>
-          </cdr:nvSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="3357841" y="2033307"/>
-              <a:ext cx="914400" cy="381000"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:txBody>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:r>
                 <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜇∝𝑇^8</a:t>
+                <a:t>𝜇∝𝑇^(−1.5)</a:t>
               </a:r>
               <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -25805,10 +25710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5C5146-D562-40A5-A13D-224A6F2E8A5D}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -25979,11 +25884,11 @@
         <v>8.6624615384615564E-3</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R5" si="2">1/$N$11/Q3*10^(-6)</f>
+        <f t="shared" ref="R3:R6" si="2">1/$N$11/Q3*10^(-6)</f>
         <v>720603171017578.5</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S5" si="3">-Q3*$N$8*10^6</f>
+        <f t="shared" ref="S3:S6" si="3">-Q3*$N$8*10^6</f>
         <v>-3506.4179037812464</v>
       </c>
     </row>
@@ -26150,6 +26055,18 @@
         <f t="shared" si="0"/>
         <v>1.5629999999999997</v>
       </c>
+      <c r="Q6">
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>8.6716346153846331E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>719840898549706</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>-3510.131010155575</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="19.5">
       <c r="A7" s="1">
@@ -26568,7 +26485,7 @@
         <v>-0.17699999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19.5">
+    <row r="17" spans="1:17" ht="19.5">
       <c r="A17" s="1">
         <v>0.4</v>
       </c>
@@ -26608,7 +26525,7 @@
         <v>-0.35299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19.5">
+    <row r="18" spans="1:17" ht="19.5">
       <c r="A18" s="1">
         <v>0.6</v>
       </c>
@@ -26648,7 +26565,7 @@
         <v>-0.52600000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="19.5">
+    <row r="19" spans="1:17" ht="19.5">
       <c r="A19" s="1">
         <v>0.8</v>
       </c>
@@ -26688,7 +26605,7 @@
         <v>-0.70199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="19.5">
+    <row r="20" spans="1:17" ht="19.5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -26728,7 +26645,7 @@
         <v>-0.87599999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="19.5">
+    <row r="21" spans="1:17" ht="19.5">
       <c r="A21" s="1">
         <v>1.2</v>
       </c>
@@ -26768,7 +26685,7 @@
         <v>-1.048</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19.5">
+    <row r="22" spans="1:17" ht="19.5">
       <c r="A22" s="1">
         <v>1.3999999999999899</v>
       </c>
@@ -26808,7 +26725,7 @@
         <v>-1.2239999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19.5">
+    <row r="23" spans="1:17" ht="19.5">
       <c r="A23" s="1">
         <v>1.5999999999999901</v>
       </c>
@@ -26848,7 +26765,7 @@
         <v>-1.3980000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19.5">
+    <row r="24" spans="1:17" ht="19.5">
       <c r="A24" s="1">
         <v>1.7999999999999901</v>
       </c>
@@ -26888,7 +26805,7 @@
         <v>-1.573</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19.5">
+    <row r="25" spans="1:17" ht="19.5">
       <c r="A25" s="1">
         <v>1.99999999999999</v>
       </c>
@@ -26928,7 +26845,7 @@
         <v>-1.7469999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19.5">
+    <row r="26" spans="1:17" ht="19.5">
       <c r="A26" s="1">
         <v>2.19999999999999</v>
       </c>
@@ -26968,7 +26885,7 @@
         <v>-1.9190000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19.5">
+    <row r="27" spans="1:17" ht="19.5">
       <c r="A27" s="1">
         <v>2.3999999999999901</v>
       </c>
@@ -27008,19 +26925,19 @@
         <v>-2.0960000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.25">
+    <row r="30" spans="1:17" ht="20.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -27042,26 +26959,32 @@
       <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="M30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="O30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="Q30" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31">
         <f>273.15+25</f>
         <v>298.14999999999998</v>
@@ -27095,35 +27018,39 @@
         <v>-0.39390408967826479</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J42" si="5">F31/100</f>
+        <f>LN(H31)</f>
+        <v>-0.90699768496256228</v>
+      </c>
+      <c r="K31">
+        <f>F31/100</f>
         <v>8.6100000000000013E-3</v>
       </c>
-      <c r="K31">
-        <f>100*J31</f>
+      <c r="L31">
+        <f>100*K31</f>
         <v>0.8610000000000001</v>
       </c>
-      <c r="L31">
-        <f>1/$N$11/J31*10^(-6)</f>
+      <c r="M31">
+        <f>1/$N$11/K31*10^(-6)</f>
         <v>724993873801766.25</v>
       </c>
-      <c r="M31">
-        <f>LOG10(L31)</f>
+      <c r="N31">
+        <f>LOG10(M31)</f>
         <v>14.860334336798127</v>
       </c>
-      <c r="N31">
-        <f>J31*$N$8*10^6</f>
+      <c r="O31">
+        <f>K31*$N$8*10^6</f>
         <v>3485.1823604077199</v>
       </c>
-      <c r="O31">
-        <f>LOG10(N31)</f>
+      <c r="P31">
+        <f>LOG10(O31)</f>
         <v>3.5422255072681037</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f>LOG10(A31)</f>
         <v>2.474434813681758</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="19.5">
+    <row r="32" spans="1:17" ht="19.5">
       <c r="A32">
         <f>30+273.15</f>
         <v>303.14999999999998</v>
@@ -27146,45 +27073,49 @@
         <v>3.2986970146792021</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H43" si="6">80/3/B32</f>
+        <f t="shared" ref="H32:H43" si="5">80/3/B32</f>
         <v>0.79530768466050306</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I42" si="7">LOG10(H32)</f>
+        <f t="shared" ref="I32:I42" si="6">LOG10(H32)</f>
         <v>-9.9464821156538888E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="5"/>
+        <f>LN(H32)</f>
+        <v>-0.22902621447236521</v>
+      </c>
+      <c r="K32">
+        <f>F32/100</f>
         <v>8.5699999999999995E-3</v>
       </c>
-      <c r="K32">
-        <f t="shared" ref="K32:K42" si="8">100*J32</f>
+      <c r="L32">
+        <f t="shared" ref="L32:L42" si="7">100*K32</f>
         <v>0.85699999999999998</v>
       </c>
-      <c r="L32">
-        <f t="shared" ref="L32:L41" si="9">1/$N$11/J32*10^(-6)</f>
+      <c r="M32">
+        <f t="shared" ref="M32:M41" si="8">1/$N$11/K32*10^(-6)</f>
         <v>728377742524295.13</v>
       </c>
-      <c r="M32">
-        <f t="shared" ref="M32:O42" si="10">LOG10(L32)</f>
+      <c r="N32">
+        <f t="shared" ref="N32:P42" si="9">LOG10(M32)</f>
         <v>14.862356666328584</v>
       </c>
-      <c r="N32">
-        <f>J32*H32*10^6</f>
+      <c r="O32">
+        <f>K32*H32*10^6</f>
         <v>6815.7868575405109</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="10"/>
+      <c r="P32">
+        <f t="shared" si="9"/>
         <v>3.8335160007666591</v>
       </c>
-      <c r="P32">
-        <f t="shared" ref="P32:P43" si="11">LOG10(A32)</f>
+      <c r="Q32">
+        <f>LOG10(A32)</f>
         <v>2.4816575725709851</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="19.5">
+    <row r="33" spans="1:17" ht="19.5">
       <c r="A33">
-        <f t="shared" ref="A33:A43" si="12">A32+10</f>
+        <f t="shared" ref="A33:A43" si="10">A32+10</f>
         <v>313.14999999999998</v>
       </c>
       <c r="B33" s="8">
@@ -27197,53 +27128,57 @@
         <v>-1.7629999999999999</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F42" si="13">D33-C33</f>
+        <f t="shared" ref="F33:F42" si="11">D33-C33</f>
         <v>0.85499999999999998</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G42" si="14">1000/A33</f>
+        <f t="shared" ref="G33:G42" si="12">1000/A33</f>
         <v>3.1933578157432541</v>
       </c>
       <c r="H33">
+        <f t="shared" si="5"/>
+        <v>0.5240060260692998</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="6"/>
-        <v>0.5240060260692998</v>
-      </c>
-      <c r="I33">
+        <v>-0.28066371860101352</v>
+      </c>
+      <c r="J33">
+        <f>LN(H33)</f>
+        <v>-0.64625209459496935</v>
+      </c>
+      <c r="K33">
+        <f>F33/100</f>
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="7"/>
-        <v>-0.28066371860101352</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>8.5500000000000003E-3</v>
-      </c>
-      <c r="K33">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="8"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="L33">
+        <v>730081550109147.25</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="9"/>
-        <v>730081550109147.25</v>
-      </c>
-      <c r="M33">
+        <v>14.863371373523609</v>
+      </c>
+      <c r="O33">
+        <f>K33*H33*10^6</f>
+        <v>4480.2515228925131</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>3.6513023961271589</v>
+      </c>
+      <c r="Q33">
+        <f>LOG10(A33)</f>
+        <v>2.4957524160373268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="19.5">
+      <c r="A34">
         <f t="shared" si="10"/>
-        <v>14.863371373523609</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ref="N33:N43" si="15">J33*H33*10^6</f>
-        <v>4480.2515228925131</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="10"/>
-        <v>3.6513023961271589</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="11"/>
-        <v>2.4957524160373268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="19.5">
-      <c r="A34">
-        <f t="shared" si="12"/>
         <v>323.14999999999998</v>
       </c>
       <c r="B34" s="8">
@@ -27256,53 +27191,57 @@
         <v>-2.0779999999999998</v>
       </c>
       <c r="F34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.8530000000000002</v>
       </c>
       <c r="G34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.094538140182578</v>
       </c>
       <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0.37643515904385472</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="6"/>
-        <v>0.37643515904385472</v>
-      </c>
-      <c r="I34">
+        <v>-0.42430982024575598</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J43" si="13">LN(H34)</f>
+        <v>-0.97700946690886081</v>
+      </c>
+      <c r="K34">
+        <f>F34/100</f>
+        <v>8.5300000000000029E-3</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="7"/>
-        <v>-0.42430982024575598</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>8.5300000000000029E-3</v>
-      </c>
-      <c r="K34">
+        <v>0.85300000000000031</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="8"/>
-        <v>0.85300000000000031</v>
-      </c>
-      <c r="L34">
+        <v>731793347413037.13</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="9"/>
-        <v>731793347413037.13</v>
-      </c>
-      <c r="M34">
+        <v>14.864388457084258</v>
+      </c>
+      <c r="O34">
+        <f>K34*H34*10^6</f>
+        <v>3210.9919066440816</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>3.506639210921767</v>
+      </c>
+      <c r="Q34">
+        <f>LOG10(A34)</f>
+        <v>2.5094041602586916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="19.5">
+      <c r="A35">
         <f t="shared" si="10"/>
-        <v>14.864388457084258</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="15"/>
-        <v>3210.9919066440816</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="10"/>
-        <v>3.506639210921767</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="11"/>
-        <v>2.5094041602586916</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="19.5">
-      <c r="A35">
-        <f t="shared" si="12"/>
         <v>333.15</v>
       </c>
       <c r="B35" s="8">
@@ -27315,53 +27254,57 @@
         <v>-2.39</v>
       </c>
       <c r="F35">
+        <f t="shared" si="11"/>
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>3.0016509079993998</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>0.32413597504152997</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>-0.4892727650339132</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="13"/>
+        <v>-1.1265921751750669</v>
+      </c>
+      <c r="K35">
+        <f>F35/100</f>
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
         <v>0.84200000000000008</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="14"/>
-        <v>3.0016509079993998</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
-        <v>0.32413597504152997</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="7"/>
-        <v>-0.4892727650339132</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="5"/>
-        <v>8.4200000000000004E-3</v>
-      </c>
-      <c r="K35">
+      <c r="M35">
         <f t="shared" si="8"/>
-        <v>0.84200000000000008</v>
-      </c>
-      <c r="L35">
+        <v>741353593044324</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="9"/>
-        <v>741353593044324</v>
-      </c>
-      <c r="M35">
+        <v>14.870025396752132</v>
+      </c>
+      <c r="O35">
+        <f>K35*H35*10^6</f>
+        <v>2729.2249098496823</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>3.4360393264657363</v>
+      </c>
+      <c r="Q35">
+        <f>LOG10(A35)</f>
+        <v>2.5226398176041553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="19.5">
+      <c r="A36">
         <f t="shared" si="10"/>
-        <v>14.870025396752132</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="15"/>
-        <v>2729.2249098496823</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="10"/>
-        <v>3.4360393264657363</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="11"/>
-        <v>2.5226398176041553</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="19.5">
-      <c r="A36">
-        <f t="shared" si="12"/>
         <v>343.15</v>
       </c>
       <c r="B36" s="8">
@@ -27374,53 +27317,57 @@
         <v>-2.6890000000000001</v>
       </c>
       <c r="F36">
+        <f t="shared" si="11"/>
+        <v>0.81299999999999972</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="12"/>
+        <v>2.9141774734081309</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0.30842778934381992</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>-0.51084649892535172</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="13"/>
-        <v>0.81299999999999972</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="14"/>
-        <v>2.9141774734081309</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="6"/>
-        <v>0.30842778934381992</v>
-      </c>
-      <c r="I36">
+        <v>-1.1762675332337136</v>
+      </c>
+      <c r="K36">
+        <f>F36/100</f>
+        <v>8.1299999999999966E-3</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="7"/>
-        <v>-0.51084649892535172</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
-        <v>8.1299999999999966E-3</v>
-      </c>
-      <c r="K36">
+        <v>0.81299999999999961</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="8"/>
-        <v>0.81299999999999961</v>
-      </c>
-      <c r="L36">
+        <v>767797940151686.5</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="9"/>
-        <v>767797940151686.5</v>
-      </c>
-      <c r="M36">
+        <v>14.885246942657712</v>
+      </c>
+      <c r="O36">
+        <f>K36*H36*10^6</f>
+        <v>2507.5179273652548</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>3.3992440466687164</v>
+      </c>
+      <c r="Q36">
+        <f>LOG10(A36)</f>
+        <v>2.5354840032266903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="19.5">
+      <c r="A37">
         <f t="shared" si="10"/>
-        <v>14.885246942657712</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="15"/>
-        <v>2507.5179273652548</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="10"/>
-        <v>3.3992440466687164</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="11"/>
-        <v>2.5354840032266903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="19.5">
-      <c r="A37">
-        <f t="shared" si="12"/>
         <v>353.15</v>
       </c>
       <c r="B37" s="8">
@@ -27433,53 +27380,57 @@
         <v>-2.931</v>
       </c>
       <c r="F37">
+        <f t="shared" si="11"/>
+        <v>0.74799999999999978</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="12"/>
+        <v>2.8316579357213651</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0.3211303789338471</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>-0.49331860823210155</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="13"/>
+        <v>-1.1359080734118068</v>
+      </c>
+      <c r="K37">
+        <f>F37/100</f>
+        <v>7.4799999999999979E-3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
         <v>0.74799999999999978</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="14"/>
-        <v>2.8316579357213651</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
-        <v>0.3211303789338471</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="7"/>
-        <v>-0.49331860823210155</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
-        <v>7.4799999999999979E-3</v>
-      </c>
-      <c r="K37">
+      <c r="M37">
         <f t="shared" si="8"/>
-        <v>0.74799999999999978</v>
-      </c>
-      <c r="L37">
+        <v>834518349389466.63</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="9"/>
-        <v>834518349389466.63</v>
-      </c>
-      <c r="M37">
+        <v>14.92143589038732</v>
+      </c>
+      <c r="O37">
+        <f>K37*H37*10^6</f>
+        <v>2402.0552344251755</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>3.3805829896323596</v>
+      </c>
+      <c r="Q37">
+        <f>LOG10(A37)</f>
+        <v>2.547959210587186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="19.5">
+      <c r="A38">
         <f t="shared" si="10"/>
-        <v>14.92143589038732</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="15"/>
-        <v>2402.0552344251755</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="10"/>
-        <v>3.3805829896323596</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="11"/>
-        <v>2.547959210587186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="19.5">
-      <c r="A38">
-        <f t="shared" si="12"/>
         <v>363.15</v>
       </c>
       <c r="B38" s="8">
@@ -27492,53 +27443,57 @@
         <v>-2.976</v>
       </c>
       <c r="F38">
+        <f t="shared" si="11"/>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>2.7536830510808206</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0.3046922608165753</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>-0.5161385767170743</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="13"/>
+        <v>-1.1884529926678991</v>
+      </c>
+      <c r="K38">
+        <f>F38/100</f>
+        <v>6.0099999999999997E-3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
         <v>0.60099999999999998</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="14"/>
-        <v>2.7536830510808206</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="6"/>
-        <v>0.3046922608165753</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
-        <v>-0.5161385767170743</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>6.0099999999999997E-3</v>
-      </c>
-      <c r="K38">
+      <c r="M38">
         <f t="shared" si="8"/>
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="L38">
+        <v>1038635150321665.4</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="9"/>
-        <v>1038635150321665.4</v>
-      </c>
-      <c r="M38">
+        <v>15.016463016249041</v>
+      </c>
+      <c r="O38">
+        <f>K38*H38*10^6</f>
+        <v>1831.2004875076175</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>3.2627358952856653</v>
+      </c>
+      <c r="Q38">
+        <f>LOG10(A38)</f>
+        <v>2.5600860484974142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="19.5">
+      <c r="A39">
         <f t="shared" si="10"/>
-        <v>15.016463016249041</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="15"/>
-        <v>1831.2004875076175</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="10"/>
-        <v>3.2627358952856653</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="11"/>
-        <v>2.5600860484974142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="19.5">
-      <c r="A39">
-        <f t="shared" si="12"/>
         <v>373.15</v>
       </c>
       <c r="B39" s="8">
@@ -27551,53 +27506,57 @@
         <v>-3.05</v>
       </c>
       <c r="F39">
+        <f t="shared" si="11"/>
+        <v>0.46700000000000008</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>2.6798874447273215</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>0.31776294884016526</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>-0.49789674291322028</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="13"/>
+        <v>-1.1464496180822696</v>
+      </c>
+      <c r="K39">
+        <f>F39/100</f>
+        <v>4.6700000000000005E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
         <v>0.46700000000000008</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="14"/>
-        <v>2.6798874447273215</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="6"/>
-        <v>0.31776294884016526</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>-0.49789674291322028</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>4.6700000000000005E-3</v>
-      </c>
-      <c r="K39">
+      <c r="M39">
         <f t="shared" si="8"/>
-        <v>0.46700000000000008</v>
-      </c>
-      <c r="L39">
+        <v>1336658940777988.8</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="9"/>
-        <v>1336658940777988.8</v>
-      </c>
-      <c r="M39">
+        <v>15.126020607685669</v>
+      </c>
+      <c r="O39">
+        <f>K39*H39*10^6</f>
+        <v>1483.952971083572</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>3.1714201376528921</v>
+      </c>
+      <c r="Q39">
+        <f>LOG10(A39)</f>
+        <v>2.5718834459564142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="19.5">
+      <c r="A40">
         <f t="shared" si="10"/>
-        <v>15.126020607685669</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="15"/>
-        <v>1483.952971083572</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="10"/>
-        <v>3.1714201376528921</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="11"/>
-        <v>2.5718834459564142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="19.5">
-      <c r="A40">
-        <f t="shared" si="12"/>
         <v>383.15</v>
       </c>
       <c r="B40" s="8">
@@ -27610,53 +27569,57 @@
         <v>-2.8359999999999999</v>
       </c>
       <c r="F40">
+        <f t="shared" si="11"/>
+        <v>0.27200000000000024</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="12"/>
+        <v>2.6099438862064468</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>0.35334128351221239</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>-0.45180561771911687</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="13"/>
+        <v>-1.0403208802910051</v>
+      </c>
+      <c r="K40">
+        <f>F40/100</f>
+        <v>2.7200000000000024E-3</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
         <v>0.27200000000000024</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="14"/>
-        <v>2.6099438862064468</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="6"/>
-        <v>0.35334128351221239</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>-0.45180561771911687</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>2.7200000000000024E-3</v>
-      </c>
-      <c r="K40">
+      <c r="M40">
         <f t="shared" si="8"/>
-        <v>0.27200000000000024</v>
-      </c>
-      <c r="L40">
+        <v>2294925460821030.5</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="9"/>
-        <v>2294925460821030.5</v>
-      </c>
-      <c r="M40">
+        <v>15.360768584217581</v>
+      </c>
+      <c r="O40">
+        <f>K40*H40*10^6</f>
+        <v>961.08829115321851</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>2.9827632863150821</v>
+      </c>
+      <c r="Q40">
+        <f>LOG10(A40)</f>
+        <v>2.5833688298927049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="19.5">
+      <c r="A41">
         <f t="shared" si="10"/>
-        <v>15.360768584217581</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="15"/>
-        <v>961.08829115321851</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="10"/>
-        <v>2.9827632863150821</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="11"/>
-        <v>2.5833688298927049</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="19.5">
-      <c r="A41">
-        <f t="shared" si="12"/>
         <v>393.15</v>
       </c>
       <c r="B41" s="8">
@@ -27669,53 +27632,57 @@
         <v>-2.46</v>
       </c>
       <c r="F41">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="12"/>
+        <v>2.5435584382551188</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>0.4091234530019433</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>-0.38814562385684426</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="13"/>
+        <v>-0.89373832740364367</v>
+      </c>
+      <c r="K41">
+        <f>F41/100</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="14"/>
-        <v>2.5435584382551188</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="6"/>
-        <v>0.4091234530019433</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>-0.38814562385684426</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
-        <v>1.25E-3</v>
-      </c>
-      <c r="K41">
+      <c r="M41">
         <f t="shared" si="8"/>
-        <v>0.125</v>
-      </c>
-      <c r="L41">
+        <v>4993757802746566</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="9"/>
-        <v>4993757802746566</v>
-      </c>
-      <c r="M41">
+        <v>15.698427475243724</v>
+      </c>
+      <c r="O41">
+        <f>K41*H41*10^6</f>
+        <v>511.40431625242911</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="9"/>
+        <v>2.7087643891512121</v>
+      </c>
+      <c r="Q41">
+        <f>LOG10(A41)</f>
+        <v>2.5945582800022815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="19.5">
+      <c r="A42">
         <f t="shared" si="10"/>
-        <v>15.698427475243724</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="15"/>
-        <v>511.40431625242911</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="10"/>
-        <v>2.7087643891512121</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="11"/>
-        <v>2.5945582800022815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="19.5">
-      <c r="A42">
-        <f t="shared" si="12"/>
         <v>403.15</v>
       </c>
       <c r="B42" s="8">
@@ -27728,53 +27695,57 @@
         <v>-1.8959999999999999</v>
       </c>
       <c r="F42">
+        <f t="shared" si="11"/>
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="12"/>
+        <v>2.480466327669602</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>0.50658561296859173</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>-0.29534714833361791</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="13"/>
+        <v>-0.68006194101128981</v>
+      </c>
+      <c r="K42">
+        <f>F42/100</f>
+        <v>1.0000000000001119E-5</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
         <v>1.0000000000001119E-3</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="14"/>
-        <v>2.480466327669602</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="6"/>
-        <v>0.50658561296859173</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
-        <v>-0.29534714833361791</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="5"/>
-        <v>1.0000000000001119E-5</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="8"/>
-        <v>1.0000000000001119E-3</v>
-      </c>
-      <c r="L42">
-        <f>1/$N$11/J42*10^(-6)</f>
+      <c r="M42">
+        <f>1/$N$11/K42*10^(-6)</f>
         <v>6.2421972534325094E+17</v>
       </c>
-      <c r="M42">
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>17.795337488251732</v>
+      </c>
+      <c r="O42">
+        <f>K42*H42*10^6</f>
+        <v>5.0658561296864839</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="9"/>
+        <v>0.70465285166643066</v>
+      </c>
+      <c r="Q42">
+        <f>LOG10(A42)</f>
+        <v>2.6054666641353719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="19.5">
+      <c r="A43">
         <f t="shared" si="10"/>
-        <v>17.795337488251732</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="15"/>
-        <v>5.0658561296864839</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="10"/>
-        <v>0.70465285166643066</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="11"/>
-        <v>2.6054666641353719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="19.5">
-      <c r="A43">
-        <f t="shared" si="12"/>
         <v>413.15</v>
       </c>
       <c r="B43" s="8">
@@ -27787,52 +27758,69 @@
         <v>-1.379</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="16">D43-C43</f>
+        <f t="shared" ref="F43" si="14">D43-C43</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43" si="17">1000/A43</f>
+        <f t="shared" ref="G43" si="15">1000/A43</f>
         <v>2.4204284158296021</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.62893081761006298</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43" si="18">LOG10(H43)</f>
+        <f t="shared" ref="I43" si="16">LOG10(H43)</f>
         <v>-0.20139712432045143</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43" si="19">F43/100</f>
+        <f t="shared" si="13"/>
+        <v>-0.46373401623214</v>
+      </c>
+      <c r="K43">
+        <f>F43/100</f>
         <v>-6.0000000000000049E-4</v>
       </c>
-      <c r="K43">
-        <f t="shared" ref="K43" si="20">100*J43</f>
+      <c r="L43">
+        <f t="shared" ref="L43" si="17">100*K43</f>
         <v>-6.0000000000000046E-2</v>
       </c>
-      <c r="L43">
-        <f>1/$N$11/J43*10^(-6)</f>
+      <c r="M43">
+        <f>1/$N$11/K43*10^(-6)</f>
         <v>-1.040366208905534E+16</v>
       </c>
-      <c r="M43">
-        <f>LOG10(-L43)</f>
+      <c r="N43">
+        <f>LOG10(-M43)</f>
         <v>16.017186237868138</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="15"/>
+      <c r="O43">
+        <f>K43*H43*10^6</f>
         <v>-377.35849056603809</v>
       </c>
-      <c r="O43">
-        <f>LOG10(-N43)</f>
+      <c r="P43">
+        <f>LOG10(-O43)</f>
         <v>2.5767541260631925</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="11"/>
+      <c r="Q43">
+        <f>LOG10(A43)</f>
         <v>2.6161077570924629</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="F44" s="6"/>
+      <c r="I44" cm="1">
+        <f t="array" ref="I44:J44">LINEST(J41:J43,G41:G43)</f>
+        <v>-3.4913842457152824</v>
+      </c>
+      <c r="J44">
+        <v>7.9846374240316589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="I45">
+        <f>-I44*8.617*2*10^(-2)</f>
+        <v>0.60170516090657178</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -29720,8 +29708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9096AF-AA6A-4D09-B907-7FD2C1AC6084}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -29895,11 +29883,11 @@
         <v>-1.2869076923076948E-2</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R5" si="2">-1/$N$11/Q3*10^(-6)</f>
+        <f t="shared" ref="R3:R6" si="2">-1/$N$11/Q3*10^(-6)</f>
         <v>485054001211201.25</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S5" si="3">-Q3*$N$8*10^6</f>
+        <f t="shared" ref="S3:S6" si="3">-Q3*$N$8*10^6</f>
         <v>3874.9336075271149</v>
       </c>
     </row>
@@ -30065,6 +30053,18 @@
       <c r="L6" s="6">
         <f t="shared" si="0"/>
         <v>-2.484</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>-1.3422673076923103E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>465048743842617.31</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>4041.6237558849598</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5">
@@ -31768,7 +31768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C94C5-4F78-478F-8EC5-1B84CF9ECDB7}">
   <dimension ref="A1:B320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+    <sheetView zoomScale="97" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
